--- a/Resources/1995/Basic_Percentile_1995.xlsx
+++ b/Resources/1995/Basic_Percentile_1995.xlsx
@@ -1276,46 +1276,46 @@
     <t>georgta01</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Vlade Divac</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Vin Baker</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Chris Mullin*</t>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Clarence Weatherspoon</t>
@@ -1366,7 +1366,7 @@
     <t>Hot Rod Williams</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Derrick McKey</t>
@@ -1375,13 +1375,13 @@
     <t>Dan Majerle</t>
   </si>
   <si>
-    <t>Dino Radja*</t>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Larry Johnson</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Nick Anderson</t>
@@ -1390,7 +1390,7 @@
     <t>Glenn Robinson</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Billy Owens</t>
@@ -1411,7 +1411,7 @@
     <t>Dee Brown</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Kenny Anderson</t>
@@ -1420,7 +1420,7 @@
     <t>Eddie Jones</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Scott Burrell</t>
@@ -1519,7 +1519,7 @@
     <t>Malik Sealy</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Isaiah Rider</t>
@@ -1579,7 +1579,7 @@
     <t>Otis Thorpe</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Mark Jackson</t>
@@ -1588,7 +1588,7 @@
     <t>Charles Smith</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Robert Pack</t>
@@ -1621,7 +1621,7 @@
     <t>Jim Jackson</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Scott Skiles</t>
@@ -1645,7 +1645,7 @@
     <t>Lester Conner</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>David Wesley</t>
@@ -1942,7 +1942,7 @@
     <t>LaSalle Thompson</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Jeff Grayer</t>
@@ -2029,7 +2029,7 @@
     <t>Dickey Simpkins</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Corey Gaines</t>
@@ -2353,7 +2353,7 @@
     <t>Duane Ferrell</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Larry Stewart</t>
